--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_PE3.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_PE3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="圧着式（はがき）サンプル" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="33">
   <si>
     <t>ＮＮＮＮＮＮ</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</t>
-  </si>
-  <si>
-    <t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</t>
   </si>
   <si>
     <t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ　様</t>
@@ -154,6 +151,30 @@
   </si>
   <si>
     <t>NNNNNNNNNNN</t>
+  </si>
+  <si>
+    <t>課税合計</t>
+  </si>
+  <si>
+    <t>非課税合計</t>
+  </si>
+  <si>
+    <t>支給合計</t>
+  </si>
+  <si>
+    <t>社会保険合計</t>
+  </si>
+  <si>
+    <t>課税対象額</t>
+  </si>
+  <si>
+    <t>控除合計</t>
+  </si>
+  <si>
+    <t>差引支給額</t>
+  </si>
+  <si>
+    <t>課税対象累計</t>
   </si>
 </sst>
 </file>
@@ -371,19 +392,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -449,6 +457,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -486,7 +507,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
@@ -501,15 +522,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -528,13 +540,13 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,7 +558,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -558,6 +570,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,7 +588,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,10 +597,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,25 +612,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -919,21 +940,21 @@
     <col min="11" max="11" width="4.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="0.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="1.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.42578125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:22" ht="18" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="6"/>
@@ -957,14 +978,14 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:22" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>43040</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7"/>
@@ -984,8 +1005,8 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1"/>
-    <row r="4" spans="1:23" s="1" customFormat="1">
+    <row r="3" spans="1:22" ht="5.25" customHeight="1"/>
+    <row r="4" spans="1:22">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1016,18 +1037,18 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="10">
@@ -1042,10 +1063,10 @@
         <v>9999999999</v>
       </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18">
+      <c r="N5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="15">
         <v>9999999999</v>
       </c>
       <c r="P5" s="3"/>
@@ -1053,18 +1074,18 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="10">
@@ -1079,10 +1100,10 @@
         <v>9999999999</v>
       </c>
       <c r="M6" s="9"/>
-      <c r="N6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
+      <c r="N6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="15">
         <v>9999999999</v>
       </c>
       <c r="P6" s="3"/>
@@ -1090,18 +1111,18 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="10">
@@ -1116,10 +1137,10 @@
         <v>9999999999</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="N7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="16">
         <v>9999999999</v>
       </c>
       <c r="P7" s="3"/>
@@ -1127,18 +1148,18 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="10">
@@ -1153,10 +1174,10 @@
         <v>9999999999</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
+      <c r="N8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="15">
         <v>9999999999</v>
       </c>
       <c r="P8" s="3"/>
@@ -1164,18 +1185,18 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="10">
@@ -1190,10 +1211,10 @@
         <v>9999999999</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18">
+      <c r="N9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="15">
         <v>9999999999</v>
       </c>
       <c r="P9" s="3"/>
@@ -1201,18 +1222,18 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="10">
@@ -1227,10 +1248,10 @@
         <v>9999999999</v>
       </c>
       <c r="M10" s="9"/>
-      <c r="N10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18">
+      <c r="N10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="15">
         <v>9999999999</v>
       </c>
       <c r="P10" s="3"/>
@@ -1238,18 +1259,18 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="10">
@@ -1264,10 +1285,10 @@
         <v>9999999999</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
+      <c r="N11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="29">
         <v>9999999999</v>
       </c>
       <c r="P11" s="3"/>
@@ -1275,18 +1296,18 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="10">
@@ -1308,20 +1329,20 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="10">
@@ -1345,20 +1366,20 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="10">
@@ -1373,10 +1394,10 @@
         <v>9999999999</v>
       </c>
       <c r="M14" s="9"/>
-      <c r="N14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18">
+      <c r="N14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
         <v>9999999999</v>
       </c>
       <c r="P14" s="3"/>
@@ -1384,18 +1405,18 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="10">
@@ -1410,10 +1431,10 @@
         <v>9999999999</v>
       </c>
       <c r="M15" s="9"/>
-      <c r="N15" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="18">
+      <c r="N15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
         <v>9999999999</v>
       </c>
       <c r="P15" s="3"/>
@@ -1421,20 +1442,20 @@
       <c r="R15" s="3"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="10">
@@ -1449,26 +1470,26 @@
         <v>9999999999</v>
       </c>
       <c r="M16" s="9"/>
-      <c r="N16" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="18">
+      <c r="N16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
         <v>9999999999</v>
       </c>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="10">
@@ -1483,27 +1504,25 @@
         <v>9999999999</v>
       </c>
       <c r="M17" s="9"/>
-      <c r="N17" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="18">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="N17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="26"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="10">
@@ -1518,25 +1537,25 @@
         <v>9999999999</v>
       </c>
       <c r="M18" s="9"/>
-      <c r="N18" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="18">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="N18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="10">
@@ -1551,25 +1570,25 @@
         <v>9999999999</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="N19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="10">
@@ -1584,27 +1603,27 @@
         <v>9999999999</v>
       </c>
       <c r="M20" s="9"/>
-      <c r="N20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="18">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>22</v>
+      <c r="N20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="10">
@@ -1619,21 +1638,25 @@
         <v>9999999999</v>
       </c>
       <c r="M21" s="9"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="N21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="29">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="10">
@@ -1651,17 +1674,17 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="10">
@@ -1681,18 +1704,18 @@
       </c>
       <c r="O23" s="32"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="10">
@@ -1707,25 +1730,25 @@
         <v>9999999999</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="22" t="s">
         <v>0</v>
       </c>
       <c r="O24" s="10">
         <v>9999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="10">
@@ -1740,25 +1763,25 @@
         <v>9999999999</v>
       </c>
       <c r="M25" s="9"/>
-      <c r="N25" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="24">
+      <c r="N25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
         <v>99999999.989999995</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="10">
@@ -1773,25 +1796,25 @@
         <v>9999999999</v>
       </c>
       <c r="M26" s="9"/>
-      <c r="N26" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="24">
+      <c r="N26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="21">
         <v>99999999.989999995</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="10">
@@ -1806,25 +1829,25 @@
         <v>9999999999</v>
       </c>
       <c r="M27" s="9"/>
-      <c r="N27" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="15" t="s">
+      <c r="N27" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="10">
@@ -1839,25 +1862,25 @@
         <v>9999999999</v>
       </c>
       <c r="M28" s="9"/>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="22" t="s">
         <v>0</v>
       </c>
       <c r="O28" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="10">
@@ -1872,27 +1895,27 @@
         <v>9999999999</v>
       </c>
       <c r="M29" s="9"/>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="22" t="s">
         <v>0</v>
       </c>
       <c r="O29" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="10">
@@ -1907,27 +1930,27 @@
         <v>9999999999</v>
       </c>
       <c r="M30" s="9"/>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="22" t="s">
         <v>0</v>
       </c>
       <c r="O30" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="10">
@@ -1942,25 +1965,25 @@
         <v>9999999999</v>
       </c>
       <c r="M31" s="9"/>
-      <c r="N31" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="18">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="N31" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="10">
@@ -1975,23 +1998,23 @@
         <v>9999999999</v>
       </c>
       <c r="M32" s="9"/>
-      <c r="N32" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="18">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="N32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="D33" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="10">
@@ -2006,29 +2029,29 @@
         <v>9999999999</v>
       </c>
       <c r="M33" s="9"/>
-      <c r="N33" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="18">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="N33" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="B34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="20">
+      <c r="G34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17">
         <v>9999999999</v>
       </c>
       <c r="I34" s="3"/>
@@ -2036,18 +2059,17 @@
         <v>0</v>
       </c>
       <c r="K34" s="49"/>
-      <c r="L34" s="20">
+      <c r="L34" s="17">
         <v>9999999999</v>
       </c>
       <c r="M34" s="9"/>
-      <c r="N34" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="19">
-        <v>9999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="1" customFormat="1"/>
+      <c r="N34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="16">
+        <v>9999999999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="40">
     <mergeCell ref="J31:K31"/>
